--- a/ACS/Metadata and Documentation/ACS2017Y5_ExecTimes1.xlsx
+++ b/ACS/Metadata and Documentation/ACS2017Y5_ExecTimes1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Repos\OCGeoDemographics\ACS\Metadata and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E759FEF-D12E-4B07-8665-79F78DA83DD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2448C0D-3826-4DED-A5C5-3570F2D33D74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="9120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{7EB31862-C77C-4CD4-A02E-502CC4961391}"/>
+    <workbookView xWindow="57480" yWindow="9120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{7EB31862-C77C-4CD4-A02E-502CC4961391}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="17" r:id="rId1"/>
@@ -439,28 +439,6 @@
       <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -481,72 +459,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -879,6 +791,94 @@
       <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     </dxf>
     <dxf>
@@ -1072,8 +1072,8 @@
     <tableColumn id="1" xr3:uid="{927F015F-4235-4CF3-9F70-1AA833403646}" name="Geography" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{2650E65F-F5B3-4E4D-8C74-B018D7E8AC03}" name="Table"/>
     <tableColumn id="6" xr3:uid="{2AA88E6F-B7F8-456D-AAFD-54781115FACB}" name="Label"/>
-    <tableColumn id="3" xr3:uid="{40A00AF7-93D6-44F6-AD76-33EF0D8DF3C2}" name="Fields" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{0E4094E0-CE1A-4D53-ADEB-775F29EFAFBE}" name="ExecTime" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{40A00AF7-93D6-44F6-AD76-33EF0D8DF3C2}" name="Fields" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{0E4094E0-CE1A-4D53-ADEB-775F29EFAFBE}" name="ExecTime" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1086,8 +1086,8 @@
     <tableColumn id="1" xr3:uid="{009BF3A0-54BD-4D91-90BE-AF7AC372C93D}" name="Geography" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{D720E5FD-36E8-4977-B0CE-F8A8020C83F7}" name="Table"/>
     <tableColumn id="6" xr3:uid="{C9BE5427-BDFA-441E-A528-4B8A32C9BA04}" name="Label"/>
-    <tableColumn id="3" xr3:uid="{6F3F8B4E-5908-4ECF-81C5-64A32EFD9A82}" name="Fields" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{54C7CF21-B74B-4153-A570-DDDDABADF77B}" name="ExecTime" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{6F3F8B4E-5908-4ECF-81C5-64A32EFD9A82}" name="Fields" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{54C7CF21-B74B-4153-A570-DDDDABADF77B}" name="ExecTime" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1100,8 +1100,8 @@
     <tableColumn id="1" xr3:uid="{32130971-7F8B-4EE7-A7BA-8FDF5A19007E}" name="Geography" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{F35BD102-0409-4637-949D-B869F48D9B1D}" name="Table"/>
     <tableColumn id="6" xr3:uid="{14FDA786-A347-462B-AAA3-92C5E520A609}" name="Label"/>
-    <tableColumn id="3" xr3:uid="{2F91368A-1798-43B2-8F08-F639028F45A9}" name="Fields" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{4C09AE69-7E5A-47C8-9189-B2B52334499B}" name="ExecTime" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{2F91368A-1798-43B2-8F08-F639028F45A9}" name="Fields" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{4C09AE69-7E5A-47C8-9189-B2B52334499B}" name="ExecTime" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1114,8 +1114,8 @@
     <tableColumn id="1" xr3:uid="{D3967C3A-3F55-4B5E-B25D-DD037716BFA9}" name="Geography" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{2C1C63E9-C1A0-4D56-B5EC-4D58B6E9A7CD}" name="Table"/>
     <tableColumn id="6" xr3:uid="{4DFCBAAF-38A1-45D8-A462-FCDF2AE3184D}" name="Label"/>
-    <tableColumn id="3" xr3:uid="{9E52BED9-4C96-4466-84EE-9671CA3E549B}" name="Fields" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{F6CA6618-3B8E-4AA4-9B84-C8BC02880F92}" name="ExecTime" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{9E52BED9-4C96-4466-84EE-9671CA3E549B}" name="Fields" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{F6CA6618-3B8E-4AA4-9B84-C8BC02880F92}" name="ExecTime" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1128,8 +1128,8 @@
     <tableColumn id="1" xr3:uid="{8F627A48-9E05-41FD-8B6C-2A25AD3FB60C}" name="Geography" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{792F578C-8C6D-43A3-9658-5AEF5B336DD5}" name="Table"/>
     <tableColumn id="6" xr3:uid="{DFC554C2-1936-4C85-8303-6AC9E699BC5A}" name="Label"/>
-    <tableColumn id="3" xr3:uid="{69DC682A-0BD2-42A3-A29A-8089F8F2ACF0}" name="Fields" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{0239122B-1C60-4FA1-9E39-0B600BC5C732}" name="ExecTime" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{69DC682A-0BD2-42A3-A29A-8089F8F2ACF0}" name="Fields" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{0239122B-1C60-4FA1-9E39-0B600BC5C732}" name="ExecTime" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1142,8 +1142,8 @@
     <tableColumn id="1" xr3:uid="{42EBC906-2675-450A-8DF0-3498C73A7604}" name="Geography" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{2BBEF48D-7A8F-4CC7-BFD5-29C8BF23266D}" name="Table"/>
     <tableColumn id="6" xr3:uid="{3893F5D4-5AAE-4497-A25C-36781F458D96}" name="Label"/>
-    <tableColumn id="3" xr3:uid="{5D18D96C-B753-4029-B360-EEE561685A4C}" name="Fields" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{09B4ECC3-DEAB-49CE-B310-1CB78A815FB2}" name="ExecTime" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{5D18D96C-B753-4029-B360-EEE561685A4C}" name="Fields" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{09B4ECC3-DEAB-49CE-B310-1CB78A815FB2}" name="ExecTime" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1198,8 +1198,8 @@
     <tableColumn id="1" xr3:uid="{FD07B86A-9EDA-475D-B8A6-31338B10642E}" name="Geography" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{2EEE7BB7-ED85-4A2C-8D3A-1808E318B470}" name="Table"/>
     <tableColumn id="6" xr3:uid="{7808BB42-4AF0-4C0D-B2E4-B9329470F739}" name="Label"/>
-    <tableColumn id="3" xr3:uid="{3A189410-510A-4684-BEFE-44829D19FA9C}" name="Fields" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{A2096DA1-ACEE-4F42-840D-6CDF1F720158}" name="ExecTime" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3A189410-510A-4684-BEFE-44829D19FA9C}" name="Fields" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{A2096DA1-ACEE-4F42-840D-6CDF1F720158}" name="ExecTime" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1212,8 +1212,8 @@
     <tableColumn id="1" xr3:uid="{3C8EA396-2E84-467A-A6A2-C458E883BA2F}" name="Geography" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{C724C10B-19DF-4DF1-A2C2-B8338ECD7730}" name="Table"/>
     <tableColumn id="6" xr3:uid="{D29C3F87-99C1-43CD-83C3-9018D765529C}" name="Label"/>
-    <tableColumn id="3" xr3:uid="{EF280A4A-6E22-45EB-8922-AF156B6F05F6}" name="Fields" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{2C55AAE1-38F8-464A-B672-59D6239F1A0F}" name="ExecTime" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{EF280A4A-6E22-45EB-8922-AF156B6F05F6}" name="Fields" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{2C55AAE1-38F8-464A-B672-59D6239F1A0F}" name="ExecTime" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1226,8 +1226,8 @@
     <tableColumn id="1" xr3:uid="{63B02E8D-5410-4CDE-831B-34E0588E3670}" name="Geography" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{B6B850E5-DEF7-4F05-8A37-36EAE6796682}" name="Table"/>
     <tableColumn id="6" xr3:uid="{E81CE80A-B5B7-4510-B9AF-3005EAF1C114}" name="Label"/>
-    <tableColumn id="3" xr3:uid="{477D763B-7084-4883-90DA-DDDF9E3477BF}" name="Fields" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{498105A3-A4E0-4288-B3B8-883EBD44A2B4}" name="ExecTime" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{477D763B-7084-4883-90DA-DDDF9E3477BF}" name="Fields" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{498105A3-A4E0-4288-B3B8-883EBD44A2B4}" name="ExecTime" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1240,8 +1240,8 @@
     <tableColumn id="1" xr3:uid="{BB2C3B56-3FBC-485E-BC92-5D0A9F43BD5F}" name="Geography" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{75F97710-E6D5-4FFF-998A-B75BEF204C8E}" name="Table"/>
     <tableColumn id="6" xr3:uid="{99043129-61C8-4CD7-BCF2-5371150BF6CB}" name="Label"/>
-    <tableColumn id="3" xr3:uid="{C8CB9789-FC7D-4D59-BF63-9D1B41E4339B}" name="Fields" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{B5DF7E10-4868-4E4E-B493-062594B58F45}" name="ExecTime" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{C8CB9789-FC7D-4D59-BF63-9D1B41E4339B}" name="Fields" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{B5DF7E10-4868-4E4E-B493-062594B58F45}" name="ExecTime" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1254,8 +1254,8 @@
     <tableColumn id="1" xr3:uid="{2E8654AE-FB25-49E3-9CA7-78B054E50A80}" name="Geography" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{10BE4440-39BB-4BBB-9E49-C7988E7327D1}" name="Table"/>
     <tableColumn id="6" xr3:uid="{ED8C76B7-EC55-43CC-B059-D5D390D2814D}" name="Label"/>
-    <tableColumn id="3" xr3:uid="{B09F1D56-9E0A-45C1-AAAA-5C8E3983C8C8}" name="Fields" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{CD966E32-C18B-4891-8CE7-4677B90C9248}" name="ExecTime" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{B09F1D56-9E0A-45C1-AAAA-5C8E3983C8C8}" name="Fields" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{CD966E32-C18B-4891-8CE7-4677B90C9248}" name="ExecTime" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1659,11 +1659,11 @@
       </c>
       <c r="C6" s="3">
         <f>PLACE[[#Totals],[Fields]]</f>
-        <v>1916</v>
+        <v>38462</v>
       </c>
       <c r="D6" s="2">
         <f>PLACE[[#Totals],[ExecTime]]</f>
-        <v>9.6643518518518511E-3</v>
+        <v>0.96547453703703712</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,11 +1675,11 @@
       </c>
       <c r="C7" s="3">
         <f>PUMA[[#Totals],[Fields]]</f>
-        <v>0</v>
+        <v>35216</v>
       </c>
       <c r="D7" s="2">
         <f>PUMA[[#Totals],[ExecTime]]</f>
-        <v>0</v>
+        <v>0.77971064814814817</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,11 +1691,11 @@
       </c>
       <c r="C8" s="3">
         <f>SDE[[#Totals],[Fields]]</f>
-        <v>0</v>
+        <v>33544</v>
       </c>
       <c r="D8" s="2">
         <f>SDE[[#Totals],[ExecTime]]</f>
-        <v>0</v>
+        <v>0.74162037037037032</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1707,11 +1707,11 @@
       </c>
       <c r="C9" s="3">
         <f>SDS[[#Totals],[Fields]]</f>
-        <v>0</v>
+        <v>31336</v>
       </c>
       <c r="D9" s="2">
         <f>SDS[[#Totals],[ExecTime]]</f>
-        <v>0</v>
+        <v>0.52687500000000009</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="C16" s="5">
         <f>SUBTOTAL(109,Table15[Fields])</f>
-        <v>121112</v>
+        <v>257754</v>
       </c>
       <c r="D16" s="2">
         <f>SUBTOTAL(109,Table15[ExecTime])</f>
-        <v>2.7845486111111115</v>
+        <v>5.7885648148148157</v>
       </c>
     </row>
   </sheetData>
@@ -5972,6 +5972,589 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3">
+        <v>718</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.4583333333333333E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3">
+        <v>420</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.7893518518518519E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3">
+        <v>110</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.5138888888888892E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3">
+        <v>664</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.6365740740740742E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1692</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.9409722222222223E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1220</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.6331018518518519E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2432</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.858796296296296E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4454</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.18920138888888891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3">
+        <v>312</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.8402777777777777E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3">
+        <v>372</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.3726851851851851E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3">
+        <v>744</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.1759259259259259E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3">
+        <v>758</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.3958333333333341E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3">
+        <v>402</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3">
+        <v>778</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7.6273148148148151E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3">
+        <v>710</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.6087962962962966E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3">
+        <v>870</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9.7106481481481471E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3940</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.15131944444444445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3">
+        <v>892</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.2824074074074076E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2968</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.5347222222222227E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2152</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.6655092592592595E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3">
+        <v>564</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.3749999999999995E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3">
+        <v>242</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.261574074074074E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1624</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.7696759259259258E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2106</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.4270833333333336E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4410</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.18435185185185185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1502</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.4988425925925928E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="3">
+        <v>746</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7.3726851851851861E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="4">
+        <f>SUBTOTAL(109,COUSUB[Fields])</f>
+        <v>37808</v>
+      </c>
+      <c r="E33" s="1">
+        <f>SUBTOTAL(109,COUSUB[ExecTime])</f>
+        <v>0.9413194444444446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF0C4B-75D3-49E9-97F8-27D16017F3B1}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -6002,7 +6585,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6019,7 +6602,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -6031,12 +6614,12 @@
         <v>718</v>
       </c>
       <c r="E3" s="1">
-        <v>6.4583333333333333E-3</v>
+        <v>6.4120370370370364E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -6053,7 +6636,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -6070,7 +6653,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -6082,12 +6665,12 @@
         <v>664</v>
       </c>
       <c r="E6" s="1">
-        <v>5.6365740740740742E-3</v>
+        <v>5.6018518518518518E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -6099,12 +6682,12 @@
         <v>1692</v>
       </c>
       <c r="E7" s="1">
-        <v>2.9409722222222223E-2</v>
+        <v>2.9861111111111113E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -6116,12 +6699,12 @@
         <v>1220</v>
       </c>
       <c r="E8" s="1">
-        <v>1.6331018518518519E-2</v>
+        <v>1.650462962962963E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -6130,15 +6713,15 @@
         <v>43</v>
       </c>
       <c r="D9" s="3">
-        <v>2432</v>
+        <v>3082</v>
       </c>
       <c r="E9" s="1">
-        <v>5.858796296296296E-2</v>
+        <v>9.1400462962962961E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -6150,12 +6733,12 @@
         <v>4454</v>
       </c>
       <c r="E10" s="1">
-        <v>0.18920138888888891</v>
+        <v>0.19098379629629628</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -6167,12 +6750,12 @@
         <v>312</v>
       </c>
       <c r="E11" s="1">
-        <v>1.8402777777777777E-3</v>
+        <v>1.7824074074074072E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -6184,12 +6767,12 @@
         <v>372</v>
       </c>
       <c r="E12" s="1">
-        <v>2.3726851851851851E-3</v>
+        <v>2.3032407407407407E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -6201,12 +6784,12 @@
         <v>744</v>
       </c>
       <c r="E13" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>6.9560185185185185E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -6218,12 +6801,12 @@
         <v>758</v>
       </c>
       <c r="E14" s="1">
-        <v>7.3958333333333341E-3</v>
+        <v>7.0949074074074074E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -6235,12 +6818,12 @@
         <v>402</v>
       </c>
       <c r="E15" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>2.5694444444444445E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -6252,12 +6835,12 @@
         <v>778</v>
       </c>
       <c r="E16" s="1">
-        <v>7.6273148148148151E-3</v>
+        <v>7.5000000000000006E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -6269,12 +6852,12 @@
         <v>710</v>
       </c>
       <c r="E17" s="1">
-        <v>6.6087962962962966E-3</v>
+        <v>6.4236111111111117E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -6286,12 +6869,12 @@
         <v>870</v>
       </c>
       <c r="E18" s="1">
-        <v>9.7106481481481471E-3</v>
+        <v>9.0624999999999994E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -6303,12 +6886,12 @@
         <v>3940</v>
       </c>
       <c r="E19" s="1">
-        <v>0.15131944444444445</v>
+        <v>0.14694444444444446</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -6320,12 +6903,12 @@
         <v>892</v>
       </c>
       <c r="E20" s="1">
-        <v>9.2824074074074076E-3</v>
+        <v>9.2361111111111116E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -6337,12 +6920,12 @@
         <v>2968</v>
       </c>
       <c r="E21" s="1">
-        <v>8.5347222222222227E-2</v>
+        <v>8.446759259259258E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -6354,12 +6937,12 @@
         <v>2152</v>
       </c>
       <c r="E22" s="1">
-        <v>4.6655092592592595E-2</v>
+        <v>4.6875E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -6371,12 +6954,12 @@
         <v>564</v>
       </c>
       <c r="E23" s="1">
-        <v>4.3749999999999995E-3</v>
+        <v>4.340277777777778E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -6388,12 +6971,12 @@
         <v>242</v>
       </c>
       <c r="E24" s="1">
-        <v>1.261574074074074E-3</v>
+        <v>1.2268518518518518E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -6405,12 +6988,12 @@
         <v>1624</v>
       </c>
       <c r="E25" s="1">
-        <v>2.7696759259259258E-2</v>
+        <v>2.6747685185185183E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -6422,12 +7005,12 @@
         <v>2106</v>
       </c>
       <c r="E26" s="1">
-        <v>4.4270833333333336E-2</v>
+        <v>4.4560185185185182E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -6439,12 +7022,12 @@
         <v>4410</v>
       </c>
       <c r="E27" s="1">
-        <v>0.18435185185185185</v>
+        <v>0.18172453703703703</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
@@ -6461,7 +7044,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -6473,12 +7056,12 @@
         <v>1502</v>
       </c>
       <c r="E29" s="1">
-        <v>2.4988425925925928E-2</v>
+        <v>2.4282407407407409E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -6495,7 +7078,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
@@ -6504,15 +7087,15 @@
         <v>94</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>1.1574074074074073E-5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -6524,7 +7107,7 @@
         <v>746</v>
       </c>
       <c r="E32" s="1">
-        <v>7.3726851851851861E-3</v>
+        <v>7.3379629629629628E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -6532,436 +7115,12 @@
         <v>37</v>
       </c>
       <c r="D33" s="4">
-        <f>SUBTOTAL(109,COUSUB[Fields])</f>
-        <v>37808</v>
-      </c>
-      <c r="E33" s="1">
-        <f>SUBTOTAL(109,COUSUB[ExecTime])</f>
-        <v>0.9413194444444446</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF0C4B-75D3-49E9-97F8-27D16017F3B1}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.1574074074074073E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3">
-        <v>718</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6.4120370370370364E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="3">
-        <v>420</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2.7893518518518519E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3">
-        <v>110</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.5138888888888892E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="3">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="4">
         <f>SUBTOTAL(109,PLACE[Fields])</f>
-        <v>1916</v>
+        <v>38462</v>
       </c>
       <c r="E33" s="1">
         <f>SUBTOTAL(109,PLACE[ExecTime])</f>
-        <v>9.6643518518518511E-3</v>
+        <v>0.96547453703703712</v>
       </c>
     </row>
   </sheetData>
@@ -6979,7 +7138,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7017,6 +7176,12 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.1574074074074073E-5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7028,6 +7193,12 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
+      <c r="D3" s="3">
+        <v>718</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.4699074074074069E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -7039,6 +7210,12 @@
       <c r="C4" t="s">
         <v>41</v>
       </c>
+      <c r="D4" s="3">
+        <v>420</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.8124999999999995E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -7050,6 +7227,12 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
+      <c r="D5" s="3">
+        <v>110</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.3981481481481481E-4</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -7061,6 +7244,12 @@
       <c r="C6" t="s">
         <v>44</v>
       </c>
+      <c r="D6" s="3">
+        <v>664</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.6712962962962958E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -7072,6 +7261,12 @@
       <c r="C7" t="s">
         <v>45</v>
       </c>
+      <c r="D7" s="3">
+        <v>1692</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.943287037037037E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -7083,6 +7278,12 @@
       <c r="C8" t="s">
         <v>46</v>
       </c>
+      <c r="D8" s="3">
+        <v>1220</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.59375E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -7094,6 +7295,12 @@
       <c r="C9" t="s">
         <v>43</v>
       </c>
+      <c r="D9" s="3">
+        <v>1782</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.246527777777778E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -7105,6 +7312,12 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
+      <c r="D10" s="3">
+        <v>2540</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.2268518518518522E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -7116,6 +7329,12 @@
       <c r="C11" t="s">
         <v>48</v>
       </c>
+      <c r="D11" s="3">
+        <v>312</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.7592592592592592E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -7127,6 +7346,12 @@
       <c r="C12" t="s">
         <v>49</v>
       </c>
+      <c r="D12" s="3">
+        <v>372</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.2685185185185182E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -7138,6 +7363,12 @@
       <c r="C13" t="s">
         <v>50</v>
       </c>
+      <c r="D13" s="3">
+        <v>744</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6.9444444444444441E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -7149,6 +7380,12 @@
       <c r="C14" t="s">
         <v>51</v>
       </c>
+      <c r="D14" s="3">
+        <v>758</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.1643518518518514E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -7160,6 +7397,12 @@
       <c r="C15" t="s">
         <v>52</v>
       </c>
+      <c r="D15" s="3">
+        <v>402</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.5810185185185185E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -7171,8 +7414,14 @@
       <c r="C16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>778</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -7182,8 +7431,14 @@
       <c r="C17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>710</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.4120370370370364E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -7193,8 +7448,14 @@
       <c r="C18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>870</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.082175925925926E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -7204,8 +7465,14 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>3940</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.14749999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -7215,8 +7482,14 @@
       <c r="C20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>892</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.432870370370371E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -7226,8 +7499,14 @@
       <c r="C21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <v>2968</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.4768518518518521E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -7237,8 +7516,14 @@
       <c r="C22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <v>2152</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.6261574074074073E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -7248,8 +7533,14 @@
       <c r="C23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>564</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.3749999999999995E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -7259,8 +7550,14 @@
       <c r="C24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>242</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -7270,8 +7567,14 @@
       <c r="C25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>1624</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.7418981481481485E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -7281,8 +7584,14 @@
       <c r="C26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>2106</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.387731481481482E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -7292,8 +7601,14 @@
       <c r="C27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>4410</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.18217592592592591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -7303,8 +7618,14 @@
       <c r="C28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -7314,8 +7635,14 @@
       <c r="C29" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <v>1502</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.4814814814814817E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -7325,8 +7652,14 @@
       <c r="C30" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -7336,8 +7669,14 @@
       <c r="C31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -7346,6 +7685,12 @@
       </c>
       <c r="C32" t="s">
         <v>66</v>
+      </c>
+      <c r="D32" s="3">
+        <v>718</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6.8634259259259256E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -7354,11 +7699,11 @@
       </c>
       <c r="D33" s="4">
         <f>SUBTOTAL(109,PUMA[Fields])</f>
-        <v>0</v>
+        <v>35216</v>
       </c>
       <c r="E33" s="1">
         <f>SUBTOTAL(109,PUMA[ExecTime])</f>
-        <v>0</v>
+        <v>0.77971064814814817</v>
       </c>
     </row>
   </sheetData>
@@ -7376,7 +7721,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7414,6 +7759,12 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.1574074074074073E-5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7425,6 +7776,12 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
+      <c r="D3" s="3">
+        <v>718</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.4467592592592597E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -7436,6 +7793,12 @@
       <c r="C4" t="s">
         <v>41</v>
       </c>
+      <c r="D4" s="3">
+        <v>420</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.7662037037037034E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -7447,6 +7810,12 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
+      <c r="D5" s="3">
+        <v>110</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.3981481481481481E-4</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -7458,6 +7827,12 @@
       <c r="C6" t="s">
         <v>44</v>
       </c>
+      <c r="D6" s="3">
+        <v>664</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.5902777777777782E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -7469,6 +7844,12 @@
       <c r="C7" t="s">
         <v>45</v>
       </c>
+      <c r="D7" s="3">
+        <v>1540</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.431712962962963E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -7480,6 +7861,12 @@
       <c r="C8" t="s">
         <v>46</v>
       </c>
+      <c r="D8" s="3">
+        <v>610</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.9074074074074072E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -7491,6 +7878,12 @@
       <c r="C9" t="s">
         <v>43</v>
       </c>
+      <c r="D9" s="3">
+        <v>886</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9.4560185185185181E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -7502,6 +7895,12 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
+      <c r="D10" s="3">
+        <v>2540</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.3090277777777773E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -7513,6 +7912,12 @@
       <c r="C11" t="s">
         <v>48</v>
       </c>
+      <c r="D11" s="3">
+        <v>312</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.7592592592592592E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -7524,6 +7929,12 @@
       <c r="C12" t="s">
         <v>49</v>
       </c>
+      <c r="D12" s="3">
+        <v>372</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.2800925925925927E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -7535,6 +7946,12 @@
       <c r="C13" t="s">
         <v>50</v>
       </c>
+      <c r="D13" s="3">
+        <v>744</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6.8171296296296287E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -7546,6 +7963,12 @@
       <c r="C14" t="s">
         <v>51</v>
       </c>
+      <c r="D14" s="3">
+        <v>758</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.1412037037037043E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -7557,6 +7980,12 @@
       <c r="C15" t="s">
         <v>52</v>
       </c>
+      <c r="D15" s="3">
+        <v>402</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.5810185185185185E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -7568,8 +7997,14 @@
       <c r="C16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>778</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7.4768518518518526E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -7579,8 +8014,14 @@
       <c r="C17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>710</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.4236111111111117E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -7590,8 +8031,14 @@
       <c r="C18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>870</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9.0972222222222218E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -7601,8 +8048,14 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>3940</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.14776620370370372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -7612,8 +8065,14 @@
       <c r="C20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>892</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.432870370370371E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -7623,8 +8082,14 @@
       <c r="C21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <v>2968</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.4930555555555551E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -7634,8 +8099,14 @@
       <c r="C22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <v>2152</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.6516203703703705E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -7645,8 +8116,14 @@
       <c r="C23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>564</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.3518518518518515E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -7656,8 +8133,14 @@
       <c r="C24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>242</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.2384259259259258E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -7667,8 +8150,14 @@
       <c r="C25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>1624</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.7465277777777772E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -7678,8 +8167,14 @@
       <c r="C26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>2106</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.4340277777777777E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -7689,8 +8184,14 @@
       <c r="C27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>4410</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.18349537037037036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -7700,8 +8201,14 @@
       <c r="C28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -7711,8 +8218,14 @@
       <c r="C29" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <v>1502</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.4814814814814817E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -7722,8 +8235,14 @@
       <c r="C30" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -7733,8 +8252,14 @@
       <c r="C31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -7743,6 +8268,12 @@
       </c>
       <c r="C32" t="s">
         <v>66</v>
+      </c>
+      <c r="D32" s="3">
+        <v>704</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6.6550925925925935E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -7751,11 +8282,11 @@
       </c>
       <c r="D33" s="4">
         <f>SUBTOTAL(109,SDE[Fields])</f>
-        <v>0</v>
+        <v>33544</v>
       </c>
       <c r="E33" s="1">
         <f>SUBTOTAL(109,SDE[ExecTime])</f>
-        <v>0</v>
+        <v>0.74162037037037032</v>
       </c>
     </row>
   </sheetData>
@@ -7772,8 +8303,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7811,6 +8342,12 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.1574074074074073E-5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7822,6 +8359,12 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
+      <c r="D3" s="3">
+        <v>718</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.4814814814814813E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -7833,6 +8376,12 @@
       <c r="C4" t="s">
         <v>41</v>
       </c>
+      <c r="D4" s="3">
+        <v>420</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.7893518518518519E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -7844,6 +8393,12 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
+      <c r="D5" s="3">
+        <v>110</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.3981481481481481E-4</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -7855,6 +8410,12 @@
       <c r="C6" t="s">
         <v>44</v>
       </c>
+      <c r="D6" s="3">
+        <v>664</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.6365740740740742E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -7866,6 +8427,12 @@
       <c r="C7" t="s">
         <v>45</v>
       </c>
+      <c r="D7" s="3">
+        <v>1540</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.4351851851851857E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -7877,6 +8444,12 @@
       <c r="C8" t="s">
         <v>46</v>
       </c>
+      <c r="D8" s="3">
+        <v>610</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.9074074074074072E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -7888,6 +8461,12 @@
       <c r="C9" t="s">
         <v>43</v>
       </c>
+      <c r="D9" s="3">
+        <v>886</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9.2245370370370363E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -7899,6 +8478,12 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
+      <c r="D10" s="3">
+        <v>2540</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.2928240740740743E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -7910,6 +8495,12 @@
       <c r="C11" t="s">
         <v>48</v>
       </c>
+      <c r="D11" s="3">
+        <v>312</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.7708333333333332E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -7921,6 +8512,12 @@
       <c r="C12" t="s">
         <v>49</v>
       </c>
+      <c r="D12" s="3">
+        <v>372</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.2800925925925927E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -7932,6 +8529,12 @@
       <c r="C13" t="s">
         <v>50</v>
       </c>
+      <c r="D13" s="3">
+        <v>744</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6.9212962962962969E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -7943,6 +8546,12 @@
       <c r="C14" t="s">
         <v>51</v>
       </c>
+      <c r="D14" s="3">
+        <v>758</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.1874999999999994E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -7954,6 +8563,12 @@
       <c r="C15" t="s">
         <v>52</v>
       </c>
+      <c r="D15" s="3">
+        <v>402</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.5925925925925925E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -7965,8 +8580,14 @@
       <c r="C16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>778</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7.5115740740740742E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -7976,8 +8597,14 @@
       <c r="C17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>710</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.4351851851851861E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -7987,8 +8614,14 @@
       <c r="C18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>870</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9.1319444444444443E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -7998,8 +8631,14 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>3940</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.14766203703703704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -8009,8 +8648,14 @@
       <c r="C20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>892</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.4675925925925917E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -8020,8 +8665,14 @@
       <c r="C21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <v>2968</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.5034722222222234E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -8031,8 +8682,14 @@
       <c r="C22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <v>2152</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.6851851851851846E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -8042,8 +8699,14 @@
       <c r="C23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>564</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.340277777777778E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -8053,8 +8716,14 @@
       <c r="C24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>242</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.2384259259259258E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -8064,8 +8733,14 @@
       <c r="C25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>1624</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.7175925925925926E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -8075,8 +8750,14 @@
       <c r="C26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>2106</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.4502314814814814E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -8086,8 +8767,11 @@
       <c r="C27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -8098,7 +8782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -8109,7 +8793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -8120,7 +8804,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -8131,7 +8815,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -8148,11 +8832,11 @@
       </c>
       <c r="D33" s="4">
         <f>SUBTOTAL(109,SDS[Fields])</f>
-        <v>0</v>
+        <v>31336</v>
       </c>
       <c r="E33" s="1">
         <f>SUBTOTAL(109,SDS[ExecTime])</f>
-        <v>0</v>
+        <v>0.52687500000000009</v>
       </c>
     </row>
   </sheetData>
